--- a/EXCEL/KUAPPAS-SUBKEGIATAN-25-10-2023.xlsx
+++ b/EXCEL/KUAPPAS-SUBKEGIATAN-25-10-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bpkad\sipd-ri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A11F5-3AC1-495A-BDEB-C0BB24174EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EBD96-47C9-4D28-98CF-E1469184069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11999" uniqueCount="2703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12007" uniqueCount="2703">
   <si>
     <t>Kode</t>
   </si>
@@ -8144,23 +8144,19 @@
       <b/>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8210,7 +8206,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -8228,7 +8223,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8247,7 +8241,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -8265,7 +8258,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8284,7 +8276,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -8302,7 +8293,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8321,7 +8311,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8340,7 +8329,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -8358,8 +8346,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AEC0FCC-40A6-4476-BA9A-F6AB7B3AA2D9}" name="Table1" displayName="Table1" ref="A1:I1905" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I1905" xr:uid="{3AEC0FCC-40A6-4476-BA9A-F6AB7B3AA2D9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0028B3FC-A9F7-4276-8EBE-E93F12CE2EE1}" name="Table1" displayName="Table1" ref="A1:I1905" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I1905" xr:uid="{0028B3FC-A9F7-4276-8EBE-E93F12CE2EE1}">
     <filterColumn colId="8">
       <filters>
         <filter val="pendidikan"/>
@@ -8367,15 +8355,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FB157FF1-7103-4518-8C05-D29B05D23C11}" name="Kode" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F68BDC7D-E4AB-441D-BCCD-6898EE22188A}" name="Sub Kegiatan" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DA5A8934-D975-4DC8-A854-EACB725293D9}" name="Nilai" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{159C9A64-57DD-4A77-BF46-BDBE5153641C}" name="Kode SKPD" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3209E1D7-5A4D-4D0B-ACF7-81C986EA164D}" name="Nama SKPD" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AD417AA0-0F9C-47F9-A4A2-8CEBCC057631}" name="Kode Bidang Urusan" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{ACF30372-0A6D-4755-923F-D7FD339607CF}" name="Bidang Urusan" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{A6550A05-7523-4CDE-AE8D-7E49A466288A}" name="Kode PMK"/>
-    <tableColumn id="9" xr3:uid="{8F71CD7A-654F-4484-8F0C-49E0654DBF36}" name="Bidang PMK"/>
+    <tableColumn id="1" xr3:uid="{4361532D-C833-4BC3-84E2-785DD021A858}" name="Kode" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CCA5A0C4-B84F-4FD4-A4E3-18A02B354EB4}" name="Sub Kegiatan" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F7C2FB6D-7258-44C4-89BE-484109997A88}" name="Nilai" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2505464E-E3ED-427D-93F8-031E59046238}" name="Kode SKPD" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E3F9CFDB-89AB-452C-855F-42461DFA4581}" name="Nama SKPD" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EBD6230F-8B42-4EBF-8BAA-2AC851B5C039}" name="Kode Bidang Urusan" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CC26C247-F232-475D-ACFF-A6D890AFC4A2}" name="Bidang Urusan" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0D531AAF-6383-41C4-A07C-35415C614C67}" name="Kode PMK"/>
+    <tableColumn id="9" xr3:uid="{663EA6B5-0E13-4A8B-855A-7A81CA0F0462}" name="Bidang PMK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8705,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B1444"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21612,7 +21600,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="24.5" hidden="1">
+    <row r="514" spans="1:9" ht="24.5">
       <c r="A514" s="3" t="s">
         <v>823</v>
       </c>
@@ -21634,8 +21622,14 @@
       <c r="G514" s="4" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" ht="36.5" hidden="1">
+      <c r="H514" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="I514" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="36.5">
       <c r="A515" s="3" t="s">
         <v>825</v>
       </c>
@@ -21656,6 +21650,12 @@
       </c>
       <c r="G515" s="4" t="s">
         <v>788</v>
+      </c>
+      <c r="H515" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="I515" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="516" spans="1:9" ht="24.5" hidden="1">
@@ -21946,7 +21946,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="24.5" hidden="1">
+    <row r="528" spans="1:9" ht="24.5">
       <c r="A528" s="3" t="s">
         <v>846</v>
       </c>
@@ -21968,8 +21968,14 @@
       <c r="G528" s="4" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" ht="36.5" hidden="1">
+      <c r="H528" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="I528" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="36.5">
       <c r="A529" s="3" t="s">
         <v>847</v>
       </c>
@@ -21990,6 +21996,12 @@
       </c>
       <c r="G529" s="4" t="s">
         <v>788</v>
+      </c>
+      <c r="H529" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="I529" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="24.5" hidden="1">
